--- a/September'21/12.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/12.09.2021/Daily Sales Info Sep'21.xlsx
@@ -18659,7 +18659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
